--- a/smartclassonlinesel/FlipLearn/Results/snapshots/Principal_Execution_Results.xlsx
+++ b/smartclassonlinesel/FlipLearn/Results/snapshots/Principal_Execution_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Principal</t>
   </si>
   <si>
-    <t>Totaltime: 97 MS</t>
+    <t>Totaltime: 70 MS</t>
   </si>
   <si>
     <t>Fliplearn - Home</t>
@@ -59,7 +59,7 @@
     <t>Working</t>
   </si>
   <si>
-    <t>Totaltime: 74 MS</t>
+    <t>Totaltime: 69 MS</t>
   </si>
   <si>
     <t>Fliplearn - Login</t>
@@ -68,16 +68,28 @@
     <t>http://www.fliplearn.com/site/login</t>
   </si>
   <si>
-    <t>vipul</t>
-  </si>
-  <si>
-    <t>Totaltime: 154 MS</t>
+    <t>principal.fdab</t>
+  </si>
+  <si>
+    <t>Totaltime: 63 MS</t>
   </si>
   <si>
     <t>Fliplearn</t>
   </si>
   <si>
     <t>http://www.fliplearn.com/index.php</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Totaltime: 65 MS</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -85,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="31">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -143,8 +155,108 @@
       <sz val="13.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +273,16 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -186,6 +308,26 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -307,6 +449,66 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="20">
+        <f>HYPERLINK("Failed", "Snapshot")</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="30">
+        <f>HYPERLINK("Failed", "Snapshot")</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
